--- a/相关数据/题库/ks.tk.xlsx
+++ b/相关数据/题库/ks.tk.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wangyaohui\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14610" windowHeight="4470"/>
+    <workbookView xWindow="4170" yWindow="-15" windowWidth="17475" windowHeight="9855"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -77,1664 +72,1891 @@
     <t>(2)B.介乎A与C之间.</t>
   </si>
   <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>我有足够的能力应付困难:</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>即使是关在铁笼内的猛兽,我见了也会惴惴不安:</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>我总避免批评别人的言行:</t>
+  </si>
+  <si>
+    <t>(2)B.有时如此.</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>我的思想似乎:</t>
+  </si>
+  <si>
+    <t>(1)A.走在了时代前面.</t>
+  </si>
+  <si>
+    <t>(3)C.正符合时代.</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>我不擅长说笑话讲趣事:</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>当我看到亲友邻居争执时,我总是:</t>
+  </si>
+  <si>
+    <t>(1)A.任其自己解决.</t>
+  </si>
+  <si>
+    <t>(2)B.置之不理.</t>
+  </si>
+  <si>
+    <t>(3)C.予以劝解.</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>在社交场合中,我:</t>
+  </si>
+  <si>
+    <t>(1)A.谈吐自然.</t>
+  </si>
+  <si>
+    <t>(3)C.退避三舍,保持沉默.</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>我愿做一名:</t>
+  </si>
+  <si>
+    <t>(1)A.建筑工程师.</t>
+  </si>
+  <si>
+    <t>(2)B.不确定.</t>
+  </si>
+  <si>
+    <t>(3)C.社会科学的教员.</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>阅读时,我宁愿选读:</t>
+  </si>
+  <si>
+    <t>(1)A.著名的宗教教义.</t>
+  </si>
+  <si>
+    <t>(3)C.国家政治组织的理论.</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>我相信许多人都有些心理不正常，但他们都不愿意这样承认:</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>我所希望的结婚对象应擅长交际而无须有文艺才能:</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>对于头脑简单和不讲理的人,我仍然能待之以礼:</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>受人侍奉时我常感到不安:</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>从事体力或脑力劳动后，我比平常人需要更多的休息才能恢复工作效率:</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>半夜醒来,我会为种种忧虑而不能再入眠:</t>
+  </si>
+  <si>
+    <t>(1)A.常常如此.</t>
+  </si>
+  <si>
+    <t>(3)C.极少如此.</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>事情进行不顺利时,我常会急得掉眼泪:</t>
+  </si>
+  <si>
+    <t>(1)A.从不如此.</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>我认为只要双方同意就可以离婚，不应当受传统礼教的束缚:</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>我对于人或物的兴趣都很容易改变:</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>筹划事务时,我宁愿:</t>
+  </si>
+  <si>
+    <t>(1)A.和别人合作.</t>
+  </si>
+  <si>
+    <t>(3)C.自己单独进行.</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>我常会无端地自言自语:</t>
+  </si>
+  <si>
+    <t>(2)B.偶然如此.</t>
+  </si>
+  <si>
+    <t>(3)C.从不如此.</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>(1)A.很匆忙,不能尽兴.</t>
+  </si>
+  <si>
+    <t>(3)C.很从容不迫.</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>有时我会怀疑别人是否对我的言谈真正有兴趣:</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>在工厂中,我宁愿负责:</t>
+  </si>
+  <si>
+    <t>(1)A.机械组.</t>
+  </si>
+  <si>
+    <t>(3)C.人事组.</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>在阅读时,我宁愿选读:</t>
+  </si>
+  <si>
+    <t>(1)A.太空旅行.</t>
+  </si>
+  <si>
+    <t>(2)B.不太确定.</t>
+  </si>
+  <si>
+    <t>(3)C.家庭教育.</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>下列三个字中哪个字与其它两个字属于不同类别:</t>
+  </si>
+  <si>
+    <t>(1)A.狗.</t>
+  </si>
+  <si>
+    <t>(2)B.石.</t>
+  </si>
+  <si>
+    <t>(3)C.牛.</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>如果我能重新做人,我要:</t>
+  </si>
+  <si>
+    <t>(1)A.把生活安排得和以前不同.</t>
+  </si>
+  <si>
+    <t>(3)C.生活得和以前相仿.</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>在我的一生中,我总能达到我所预期的目标:</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>当我说谎时,我总觉得内心不安,不敢正视对方:</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>假使我手持一支装有子弹的手枪，我必须取出子弹后才能心安:</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>朋友们大都认为我是一个说话有风趣的人:</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>如果人们知道我的内心世界,他们都会感到惊讶:</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>在社交场合中,如果我突然成为众所注意的中心,我会感到局促不安:</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>在下列工作中,我喜欢的是:</t>
+  </si>
+  <si>
+    <t>(1)A.音乐.</t>
+  </si>
+  <si>
+    <t>(3)C.手工.</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>我常常怀疑那些过于友善的人动机是否如此:</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>(1)A.一个艺人或博物学家.</t>
+  </si>
+  <si>
+    <t>(3)C.会计师或保险公司的经纪人.</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>目前世界所需要的是:</t>
+  </si>
+  <si>
+    <t>(1)A.多产生一些富有改善世界计划的理想家.</t>
+  </si>
+  <si>
+    <t>(3)C.脚踏实地的可靠公民.</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>有时候我觉得我需要做剧烈的体力活动:</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>(1)A.较一般人差.</t>
+  </si>
+  <si>
+    <t>(2)B.普通.</t>
+  </si>
+  <si>
+    <t>(3)C.超人一等.</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>当上司(或教师)召见我时,我:</t>
+  </si>
+  <si>
+    <t>(1)A.总觉得可以趁机会提出建议.</t>
+  </si>
+  <si>
+    <t>(3)C.总怀疑自己做错了什么事.</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>假使薪俸优厚,我愿意专任照料精神病人的职务:</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>看报时,我喜欢读:</t>
+  </si>
+  <si>
+    <t>(1)A.当前世界基本社会问题的辩论.</t>
+  </si>
+  <si>
+    <t>(3)C.地方新闻的报道.</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>我曾担任过:</t>
+  </si>
+  <si>
+    <t>(1)A.一般职务.</t>
+  </si>
+  <si>
+    <t>(2)B.多种职务.</t>
+  </si>
+  <si>
+    <t>(3)C.非常多的职务.</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>逛街时,我宁愿观看一个画家写生,而不愿听人家的辩论:</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>(1)A.时常如此.</t>
+  </si>
+  <si>
+    <t>(3)C.从未如此.</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>我在清晨起身时,就常常感到疲乏不堪:</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>我宁愿是一个:</t>
+  </si>
+  <si>
+    <t>(1)A.管森林的工作人员.</t>
+  </si>
+  <si>
+    <t>(3)C.中小学教员.</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>每逢年节或亲友生日,我:</t>
+  </si>
+  <si>
+    <t>(1)A.喜欢互相赠送礼物.</t>
+  </si>
+  <si>
+    <t>(3)C.觉得交换礼物是麻烦多事.</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>下列数字中,哪个数字与其他两个数字属于不同类别:</t>
+  </si>
+  <si>
+    <t>(1)A.  5.</t>
+  </si>
+  <si>
+    <t>(2)B.  2.</t>
+  </si>
+  <si>
+    <t>(3)C.  7.</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>[猫]与[鱼]就如同[牛]与:</t>
+  </si>
+  <si>
+    <t>(1)A.牛乳.</t>
+  </si>
+  <si>
+    <t>(2)B.牧草.</t>
+  </si>
+  <si>
+    <t>(3)C.盐.</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>在做人处事的各个方面,我的父母很值得敬佩:</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>我觉得我有一些别人所不及的优良品质:</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>只要有利于大家,尽管别人认为卑贱的工作,我也乐而为之,不以为耻:</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>我喜欢看电影或参加其他娱乐活动:</t>
+  </si>
+  <si>
+    <t>(1)A.每周一次以上(比一般人多).</t>
+  </si>
+  <si>
+    <t>(2)B.每周一次(与通常人相似).</t>
+  </si>
+  <si>
+    <t>(3)C.偶然一次(比通常人少).</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>我喜欢从事需要精确技术的工作:</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>就我来说,在大众前演讲或表演是一件不容易的事:</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>我宁愿:</t>
+  </si>
+  <si>
+    <t>(1)A.指挥几个人工作.</t>
+  </si>
+  <si>
+    <t>(3)C.和团体共同工作.</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>纵使我做了一桩贻笑大方的事，我也仍然能够将它淡然忘却:</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>没有人会幸灾乐祸地希望我遭遇困难:</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>堂堂男子汉应该:</t>
+  </si>
+  <si>
+    <t>(1)A.考虑人生的意义.</t>
+  </si>
+  <si>
+    <t>(3)C.谋家庭的温饱.</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>我喜欢解决别人已弄得一塌糊涂的问题:</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>我十分高兴的时候总有[好景不常]之感:</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>在一般困难处境下,我总能保持乐观:</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>迁居是一桩极不愉快的事:</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>(1)A.坚持自己的意见.</t>
+  </si>
+  <si>
+    <t>(3)C.接受他们的意见.</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>我希望我的爱人能够使家庭:</t>
+  </si>
+  <si>
+    <t>(1)A.有其本身的欢乐与活动.</t>
+  </si>
+  <si>
+    <t>(3)C.成为邻里社交活动的一部分.</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>我解决问题多数依靠:</t>
+  </si>
+  <si>
+    <t>(1)A.个人独立思考.</t>
+  </si>
+  <si>
+    <t>(3)C.与人互相讨论.</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>需要[当机立断]时,我总:</t>
+  </si>
+  <si>
+    <t>(1)A.镇静地运用理智.</t>
+  </si>
+  <si>
+    <t>(3)C.常常紧张兴奋,不能冷静思考.</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>最近,在一两桩事情上,我觉得自己是无辜受累:</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>我善于控制我的表情:</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>如果薪俸相等,我宁愿做:</t>
+  </si>
+  <si>
+    <t>(1)A.一个化学研究师.</t>
+  </si>
+  <si>
+    <t>(3)C.旅行社经理.</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>[惊讶]与[新奇]犹如[惧怕]与:</t>
+  </si>
+  <si>
+    <t>(1)A.勇敢.</t>
+  </si>
+  <si>
+    <t>(2)B.焦虑.</t>
+  </si>
+  <si>
+    <t>(3)C.恐怖.</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>下列三个分数中,哪一个与其他两个属不同类别:</t>
+  </si>
+  <si>
+    <t>(1)A.  3/7.</t>
+  </si>
+  <si>
+    <t>(2)B.  3/9.</t>
+  </si>
+  <si>
+    <t>(3)C.  3/11.</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>不知什么缘故,有些人故意回避或冷淡我:</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>我虽善意待人,却得不到好报:</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>我不喜欢那些夜郎自大,目空一切的人:</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>和一般人相比,我的朋友的确太少:</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>出于万不得已时,我才参加社交集会,否则我总设法回避:</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>在服务机关中,对上级的逢迎得当,比工作上的表现更为重要:</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>参加竞赛时,我看重的是竞赛活动,而不计较其成败:</t>
+  </si>
+  <si>
+    <t>(1)A.总是如此.</t>
+  </si>
+  <si>
+    <t>(2)B.一般如此.</t>
+  </si>
+  <si>
+    <t>(3)C.偶然如此.</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>我宁愿我所就的职业有:</t>
+  </si>
+  <si>
+    <t>(1)A.固定可靠的薪水.</t>
+  </si>
+  <si>
+    <t>(3)C.薪资高低能随我工作的表现而随时调整.</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>我宁愿阅读:</t>
+  </si>
+  <si>
+    <t>(1)A.军事与政治的事实记载.</t>
+  </si>
+  <si>
+    <t>(3)C.一部富有情感与幻想的作品.</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>有许多人不敢欺骗或犯罪,主要原因是怕受到惩罚:</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>我的父母(或保护人)从未很严格地要我事事顺从:</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>如果有人对我发怒,我总:</t>
+  </si>
+  <si>
+    <t>(1)A.设法使他镇静下来.</t>
+  </si>
+  <si>
+    <t>(3)C.也会恼怒起来.</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>我希望大家都提倡:</t>
+  </si>
+  <si>
+    <t>(1)A.多吃水果以避免杀生.</t>
+  </si>
+  <si>
+    <t>(3)C.发展农业捕灭对农产品有害的动物.</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>无论在极高的屋顶上或极深的隧道中，我很少觉得胆怯不安:</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>我只要没有过错,不管人家怎样归咎于我,我总能心安理得:</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>凡是无法运用理智来解决的问题，有时就不得不靠权力来处理:</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>我十六、七岁时与异性朋友的交游:</t>
+  </si>
+  <si>
+    <t>(1)A.极多.</t>
+  </si>
+  <si>
+    <t>(3)C.不很多.</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>在某环境下,我常因困惑引起幻想而将工作搁置下来:</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>我很少用难堪的话去中伤别人的感情:</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>我更愿意做一名:</t>
+  </si>
+  <si>
+    <t>(1)A.商店经理.</t>
+  </si>
+  <si>
+    <t>(3)C.建筑师.</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>[理不胜辞]的意思是:</t>
+  </si>
+  <si>
+    <t>(1)A.理不如辞.</t>
+  </si>
+  <si>
+    <t>(2)B.理多而辞寡.</t>
+  </si>
+  <si>
+    <t>(3)C.辞藻丰富而理由不足.</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>[锄头]与[挖掘]犹如[刀子]与:</t>
+  </si>
+  <si>
+    <t>(1)A.雕刻.</t>
+  </si>
+  <si>
+    <t>(2)B.切剖.</t>
+  </si>
+  <si>
+    <t>(3)C.铲除.</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>我常横过街道,以回避我不愿招乎的人:</t>
+  </si>
+  <si>
+    <t>(1)A.很少如此.</t>
+  </si>
+  <si>
+    <t>(3)C.有时如此.</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>在我倾听音乐时,如果人家高谈阔论:</t>
+  </si>
+  <si>
+    <t>(1)A.我仍然能够专心听,不受影响.</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>在课堂上,如果我的意见与教师不同,我常:</t>
+  </si>
+  <si>
+    <t>(1)A.保持缄默.</t>
+  </si>
+  <si>
+    <t>(3)C.当场表明立场.</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>我和异性友伴交谈时, 竭力避免涉及有关 [性] 的话题:</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>我待人接物的确不太成功:</t>
+  </si>
+  <si>
+    <t>(2)B.不尽然.</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>每当考虑困难问题时,我总是:</t>
+  </si>
+  <si>
+    <t>(3)C.相信到时候会自然解决.</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>我所结交的朋友中,男女各占一半:</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>我宁可:</t>
+  </si>
+  <si>
+    <t>(1)A.结识很多的人.</t>
+  </si>
+  <si>
+    <t>(3)C.维持几个深交的朋友.</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>我宁为哲学家,而不做机械工程师:</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>如果我发现某人自私不义，我总不计一切指摘他的弱点:</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>当人们颂扬我时,我总觉得不好意思:</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>(1)A.政治纠纷.</t>
+  </si>
+  <si>
+    <t>(3)C.道德标准的有无.</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>我有时会无故地产生一种面临横祸的恐惧:</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>我在童年时,害怕黑暗的次数:</t>
+  </si>
+  <si>
+    <t>(2)B.不太多.</t>
+  </si>
+  <si>
+    <t>(3)C.没有.</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>黄昏闲暇,我喜欢:</t>
+  </si>
+  <si>
+    <t>(1)A.看一部历史探险影片.</t>
+  </si>
+  <si>
+    <t>(3)C.念一本科学幻想小说.</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>当人们批评我古怪时,我觉得:</t>
+  </si>
+  <si>
+    <t>(1)A.非常气恼.</t>
+  </si>
+  <si>
+    <t>(2)B.有些动气.</t>
+  </si>
+  <si>
+    <t>(3)C.无所谓.</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>在一个陌生的城市找住址时,我经常:</t>
+  </si>
+  <si>
+    <t>(1)A.就人问路.</t>
+  </si>
+  <si>
+    <t>(3)C.参考市区地图.</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>朋友们申言要在家休息时,我仍设法怂恿他们外出:</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>在就寝时,我:</t>
+  </si>
+  <si>
+    <t>(1)A.不易入睡.</t>
+  </si>
+  <si>
+    <t>(3)C.极容易入睡.</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>有人烦扰我时,我:</t>
+  </si>
+  <si>
+    <t>(1)A.能不露生色.</t>
+  </si>
+  <si>
+    <t>(3)C.要说给别人听,以泄气愤.</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>如果薪俸相等,我宁愿做一个:</t>
+  </si>
+  <si>
+    <t>(1)A.律师.</t>
+  </si>
+  <si>
+    <t>(3)C.飞行员或航海员.</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>时间永恒是比喻:</t>
+  </si>
+  <si>
+    <t>(1)A.时间过得很慢.</t>
+  </si>
+  <si>
+    <t>(2)B.忘了时间.</t>
+  </si>
+  <si>
+    <t>(3)C.光阴一去不复返.</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>下列三项记号中,哪一项应紧接:*OOOO**OOO***</t>
+  </si>
+  <si>
+    <t>(1)A.  *O*.</t>
+  </si>
+  <si>
+    <t>(2)B.  OO*.</t>
+  </si>
+  <si>
+    <t>(3)C.  O**.</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>在陌生的地方,我仍能清楚地辩别东西南北的方向:</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>我的确比一般人幸运,因为我能从事自己所乐的工作:</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>如果我急于想借用别人的东西而物主恰又不在，我认为不告而取亦无大碍:</t>
+  </si>
+  <si>
+    <t>132</t>
+  </si>
+  <si>
+    <t>我喜欢向友人追述一些已往有趣的社交经验:</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>(1)A.演员.</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>工作学习之余,我总要安排计划,不使时间浪费:</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>与人交际时,我常会无端地产生一种自卑感:</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>主动与陌生人交谈:</t>
+  </si>
+  <si>
+    <t>(1)A.是一桩难事.</t>
+  </si>
+  <si>
+    <t>(3)C.毫无困难.</t>
+  </si>
+  <si>
+    <t>137</t>
+  </si>
+  <si>
+    <t>我喜欢的音乐,多数是:</t>
+  </si>
+  <si>
+    <t>(1)A.轻快活泼.</t>
+  </si>
+  <si>
+    <t>(3)C.富于情感.</t>
+  </si>
+  <si>
+    <t>138</t>
+  </si>
+  <si>
+    <t>我爱做[白日梦]即[完全沉浸于幻想之中]:</t>
+  </si>
+  <si>
+    <t>139</t>
+  </si>
+  <si>
+    <t>未来二十年的世界局势定将好:</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>童年时,我喜欢阅读:</t>
+  </si>
+  <si>
+    <t>(1)A.战争故事.</t>
+  </si>
+  <si>
+    <t>(3)C.神仙幻想故事.</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>我素来对机械、汽车、飞机等有兴趣:</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>我愿意做一个缓刑释放罪犯的管理监视人:</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>人们认为我只不过是一个能苦干,稍有成就的人而已:</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>在逆境中,我总能保持精神振奋:</t>
+  </si>
+  <si>
+    <t>145</t>
+  </si>
+  <si>
+    <t>我以为人工节育是解决世界经济与和平问题的要诀:</t>
+  </si>
+  <si>
+    <t>146</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>我相信[上司不可能没有过错,但他仍有权做当权者]:</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>我总设法使自己不粗心大意,忽略细节:</t>
+  </si>
+  <si>
+    <t>149</t>
+  </si>
+  <si>
+    <t>与人争辩或险遭事故后，我常发抖，精疲力竭，不能安心工作:</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>没有医生处方,我从不乱用药:</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>为了培养个人的兴趣,我愿意参加:</t>
+  </si>
+  <si>
+    <t>(1)A.摄影组.</t>
+  </si>
+  <si>
+    <t>(3)C.辩论会.</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>(1)A.同情.</t>
+  </si>
+  <si>
+    <t>(2)B.养奸.</t>
+  </si>
+  <si>
+    <t>(3)C.纵容.</t>
+  </si>
+  <si>
+    <t>153</t>
+  </si>
+  <si>
+    <t>(1)A.西装.</t>
+  </si>
+  <si>
+    <t>(2)B.剪刀.</t>
+  </si>
+  <si>
+    <t>(3)C.布料.</t>
+  </si>
+  <si>
+    <t>154</t>
+  </si>
+  <si>
+    <t>生动的梦境常常滋扰我的睡眠:</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>我过去曾撕毁一些禁止人们自由的布告:</t>
+  </si>
+  <si>
+    <t>156</t>
+  </si>
+  <si>
+    <t>在一个陌生的城市中,我会:</t>
+  </si>
+  <si>
+    <t>(1)A.到处闲游.</t>
+  </si>
+  <si>
+    <t>157</t>
+  </si>
+  <si>
+    <t>我宁愿服饰素洁大方,而不愿争奇斗艳惹人注目:</t>
+  </si>
+  <si>
+    <t>158</t>
+  </si>
+  <si>
+    <t>黄昏时,安静的娱乐远胜过热闹的宴会:</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>我常常明知故犯,不愿意接受好心的建议:</t>
+  </si>
+  <si>
+    <t>(1)A.偶然如此.</t>
+  </si>
+  <si>
+    <t>(2)B.罕有如此.</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>我总把[是非][善恶]作为判断或取舍的原则:</t>
+  </si>
+  <si>
+    <t>161</t>
+  </si>
+  <si>
+    <t>我工作时不喜欢有许多人在旁参观:</t>
+  </si>
+  <si>
+    <t>162</t>
+  </si>
+  <si>
+    <t>163</t>
+  </si>
+  <si>
+    <t>在各种课程中,我较喜欢:</t>
+  </si>
+  <si>
+    <t>(1)A.语文.</t>
+  </si>
+  <si>
+    <t>(3)C.数学.</t>
+  </si>
+  <si>
+    <t>164</t>
+  </si>
+  <si>
+    <t>那些自以为是、道貌岸然的人最使我生气:</t>
+  </si>
+  <si>
+    <t>165</t>
+  </si>
+  <si>
+    <t>与平常循规蹈矩的人交谈:</t>
+  </si>
+  <si>
+    <t>(3)C.他们思想的肤浅使我厌烦.</t>
+  </si>
+  <si>
+    <t>166</t>
+  </si>
+  <si>
+    <t>我喜欢:</t>
+  </si>
+  <si>
+    <t>(1)A.有几个有时对我很苛求而富有感情的朋友.</t>
+  </si>
+  <si>
+    <t>(3)C.不受别人的牵涉.</t>
+  </si>
+  <si>
+    <t>167</t>
+  </si>
+  <si>
+    <t>如果做民意投票时,我宁愿投票赞同:</t>
+  </si>
+  <si>
+    <t>(1)A.切实根绝有生理缺陷者的生育.</t>
+  </si>
+  <si>
+    <t>(3)C.对杀人犯判处死刑.</t>
+  </si>
+  <si>
+    <t>168</t>
+  </si>
+  <si>
+    <t>我有时会无端地感到沮丧痛苦:</t>
+  </si>
+  <si>
+    <t>169</t>
+  </si>
+  <si>
+    <t>当我与立场相反的人辩论时,我主张:</t>
+  </si>
+  <si>
+    <t>(1)A.尽量找出基本观点的差异.</t>
+  </si>
+  <si>
+    <t>(3)C.彼此让步以解决矛盾.</t>
+  </si>
+  <si>
+    <t>170</t>
+  </si>
+  <si>
+    <t>我一向重感情而不重理智,因此我的观点常动摇不定:</t>
+  </si>
+  <si>
+    <t>171</t>
+  </si>
+  <si>
+    <t>我的学习效率多有赖于:</t>
+  </si>
+  <si>
+    <t>(1)A.阅读好书.</t>
+  </si>
+  <si>
+    <t>(3)C.参加团体讨论.</t>
+  </si>
+  <si>
+    <t>172</t>
+  </si>
+  <si>
+    <t>173</t>
+  </si>
+  <si>
+    <t>在参加辩论以前,我总先把握住自己的立场:</t>
+  </si>
+  <si>
+    <t>(1)A.经常如此.</t>
+  </si>
+  <si>
+    <t>(3)C.必要时才如此.</t>
+  </si>
+  <si>
+    <t>174</t>
+  </si>
+  <si>
+    <t>我常被一些无所谓的琐事所烦扰:</t>
+  </si>
+  <si>
+    <t>175</t>
+  </si>
+  <si>
+    <t>我宁愿住在嘈杂的城市,而不愿住在安静的乡村:</t>
+  </si>
+  <si>
+    <t>176</t>
+  </si>
+  <si>
+    <t>(1)A.负责领导儿童游戏.</t>
+  </si>
+  <si>
+    <t>(3)C.协助钟表修理.</t>
+  </si>
+  <si>
+    <t>177</t>
+  </si>
+  <si>
+    <t>一人__事,众人受累:</t>
+  </si>
+  <si>
+    <t>(1)A.愤.</t>
+  </si>
+  <si>
+    <t>(2)B.偾.</t>
+  </si>
+  <si>
+    <t>(3)C.喷.</t>
+  </si>
+  <si>
+    <t>178</t>
+  </si>
+  <si>
+    <t>望子成龙的家长往往__苗助长:</t>
+  </si>
+  <si>
+    <t>(1)A.揠.</t>
+  </si>
+  <si>
+    <t>(2)B.堰.</t>
+  </si>
+  <si>
+    <t>(3)C.偃.</t>
+  </si>
+  <si>
+    <t>179</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>因为我对于一切问题都有些见解，大家都公认我富于思想:</t>
+  </si>
+  <si>
+    <t>181</t>
+  </si>
+  <si>
+    <t>我讲话的声音:</t>
+  </si>
+  <si>
+    <t>(1)A.宏亮.</t>
+  </si>
+  <si>
+    <t>(3)C.低沉.</t>
+  </si>
+  <si>
+    <t>182</t>
+  </si>
+  <si>
+    <t>人们公认我是一个活跃热情的人:</t>
+  </si>
+  <si>
+    <t>183</t>
+  </si>
+  <si>
+    <t>我喜欢有旅行和变动机会的工作，而不计较工作本身之是否有保障:</t>
+  </si>
+  <si>
+    <t>184</t>
+  </si>
+  <si>
+    <t>我治事严格,凡事都务求正确尽善:</t>
+  </si>
+  <si>
+    <t>185</t>
+  </si>
+  <si>
+    <t>在取回或归还东西时，我总仔细检查是否东西还保持原状:</t>
+  </si>
+  <si>
+    <t>186</t>
+  </si>
+  <si>
+    <t>我通常精力充沛,忙碌多事:</t>
+  </si>
+  <si>
+    <t>187</t>
+  </si>
+  <si>
+    <t>我确信我没有遗漏或不经心回答上面任何问题:</t>
+  </si>
+  <si>
+    <t>(2)B.不确定.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(2)B.不一定.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(3)C.常常如此.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我宁愿自己的生活像:</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的神经脆弱,稍有刺激的声音就会使我害怕:</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(3)C.避免去不安全的地方.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我宁选一个薪俸高的工作,不在乎有无保障;也不愿意从事薪俸低的固定工作:</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>星火燎原对等于姑息:</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>(3)C.闲居清静而偏僻的郊区.</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>我有足够的能力应付困难:</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>即使是关在铁笼内的猛兽,我见了也会惴惴不安:</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>我总避免批评别人的言行:</t>
-  </si>
-  <si>
-    <t>(2)B.有时如此.</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>我的思想似乎:</t>
-  </si>
-  <si>
-    <t>(1)A.走在了时代前面.</t>
-  </si>
-  <si>
-    <t>(2)B.不太一定.</t>
-  </si>
-  <si>
-    <t>(3)C.正符合时代.</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>我不擅长说笑话讲趣事:</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>当我看到亲友邻居争执时,我总是:</t>
-  </si>
-  <si>
-    <t>(1)A.任其自己解决.</t>
-  </si>
-  <si>
-    <t>(2)B.置之不理.</t>
-  </si>
-  <si>
-    <t>(3)C.予以劝解.</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>在社交场合中,我:</t>
-  </si>
-  <si>
-    <t>(1)A.谈吐自然.</t>
-  </si>
-  <si>
-    <t>(3)C.退避三舍,保持沉默.</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>我愿做一名:</t>
-  </si>
-  <si>
-    <t>(1)A.建筑工程师.</t>
-  </si>
-  <si>
-    <t>(2)B.不确定.</t>
-  </si>
-  <si>
-    <t>(3)C.社会科学的教员.</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>阅读时,我宁愿选读:</t>
-  </si>
-  <si>
-    <t>(1)A.著名的宗教教义.</t>
-  </si>
-  <si>
-    <t>(3)C.国家政治组织的理论.</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>我相信许多人都有些心理不正常，但他们都不愿意这样承认:</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>我所希望的结婚对象应擅长交际而无须有文艺才能:</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>对于头脑简单和不讲理的人,我仍然能待之以礼:</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>受人侍奉时我常感到不安:</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>从事体力或脑力劳动后，我比平常人需要更多的休息才能恢复工作效率:</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>半夜醒来,我会为种种忧虑而不能再入眠:</t>
-  </si>
-  <si>
-    <t>(1)A.常常如此.</t>
-  </si>
-  <si>
-    <t>(3)C.极少如此.</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>事情进行不顺利时,我常会急得掉眼泪:</t>
-  </si>
-  <si>
-    <t>(1)A.从不如此.</t>
-  </si>
-  <si>
-    <t>(3)C.时常如此.</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>我认为只要双方同意就可以离婚，不应当受传统礼教的束缚:</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>我对于人或物的兴趣都很容易改变:</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>筹划事务时,我宁愿:</t>
-  </si>
-  <si>
-    <t>(1)A.和别人合作.</t>
-  </si>
-  <si>
-    <t>(3)C.自己单独进行.</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>我常会无端地自言自语:</t>
-  </si>
-  <si>
-    <t>(2)B.偶然如此.</t>
-  </si>
-  <si>
-    <t>(3)C.从不如此.</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>无论工作,饮食或出游,我总:</t>
-  </si>
-  <si>
-    <t>(1)A.很匆忙,不能尽兴.</t>
-  </si>
-  <si>
-    <t>(3)C.很从容不迫.</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>有时我会怀疑别人是否对我的言谈真正有兴趣:</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>在工厂中,我宁愿负责:</t>
-  </si>
-  <si>
-    <t>(1)A.机械组.</t>
-  </si>
-  <si>
-    <t>(3)C.人事组.</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>在阅读时,我宁愿选读:</t>
-  </si>
-  <si>
-    <t>(1)A.太空旅行.</t>
-  </si>
-  <si>
-    <t>(2)B.不太确定.</t>
-  </si>
-  <si>
-    <t>(3)C.家庭教育.</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>下列三个字中哪个字与其它两个字属于不同类别:</t>
-  </si>
-  <si>
-    <t>(1)A.狗.</t>
-  </si>
-  <si>
-    <t>(2)B.石.</t>
-  </si>
-  <si>
-    <t>(3)C.牛.</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>如果我能重新做人,我要:</t>
-  </si>
-  <si>
-    <t>(1)A.把生活安排得和以前不同.</t>
-  </si>
-  <si>
-    <t>(3)C.生活得和以前相仿.</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>在我的一生中,我总能达到我所预期的目标:</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>当我说谎时,我总觉得内心不安,不敢正视对方:</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>假使我手持一支装有子弹的手枪，我必须取出子弹后才能心安:</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>朋友们大都认为我是一个说话有风趣的人:</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>如果人们知道我的内心世界,他们都会感到惊讶:</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>在社交场合中,如果我突然成为众所注意的中心,我会感到局促不安:</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>我总喜欢参加规模庞大的聚会,舞会或公共集会:</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>在下列工作中,我喜欢的是:</t>
-  </si>
-  <si>
-    <t>(1)A.音乐.</t>
-  </si>
-  <si>
-    <t>(3)C.手工.</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>我常常怀疑那些过于友善的人动机是否如此:</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>我宁愿自己的生活象:</t>
-  </si>
-  <si>
-    <t>(1)A.一个艺人或博物学家.</t>
-  </si>
-  <si>
-    <t>(3)C.会计师或保险公司的经纪人.</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>目前世界所需要的是:</t>
-  </si>
-  <si>
-    <t>(1)A.多产生一些富有改善世界计划的理想家.</t>
-  </si>
-  <si>
-    <t>(3)C.脚踏实地的可靠公民.</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>有时候我觉得我需要做剧烈的体力活动:</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>我愿意与有礼貌有教养的人来往，而不愿和粗卤野蛮的人为伍:</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>在处理一些必须凭籍智慧的事务中,我的父母的确:</t>
-  </si>
-  <si>
-    <t>(1)A.较一般人差.</t>
-  </si>
-  <si>
-    <t>(2)B.普通.</t>
-  </si>
-  <si>
-    <t>(3)C.超人一等.</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>当上司(或教师)召见我时,我:</t>
-  </si>
-  <si>
-    <t>(1)A.总觉得可以趁机会提出建议.</t>
-  </si>
-  <si>
-    <t>(3)C.总怀疑自己做错了什么事.</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>假使薪俸优厚,我愿意专任照料精神病人的职务:</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>看报时,我喜欢读:</t>
-  </si>
-  <si>
-    <t>(1)A.当前世界基本社会问题的辩论.</t>
-  </si>
-  <si>
-    <t>(3)C.地方新闻的报道.</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>我曾担任过:</t>
-  </si>
-  <si>
-    <t>(1)A.一般职务.</t>
-  </si>
-  <si>
-    <t>(2)B.多种职务.</t>
-  </si>
-  <si>
-    <t>(3)C.非常多的职务.</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>逛街时,我宁愿观看一个画家写生,而不愿听人家的辩论:</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>我的神经脆弱,稍有刺激的声音就会使我战惊:</t>
-  </si>
-  <si>
-    <t>(1)A.时常如此.</t>
-  </si>
-  <si>
-    <t>(3)C.从未如此.</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>我在清晨起身时,就常常感到疲乏不堪:</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>我宁愿是一个:</t>
-  </si>
-  <si>
-    <t>(1)A.管森林的工作人员.</t>
-  </si>
-  <si>
-    <t>(3)C.中小学教员.</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>每逢年节或亲友生日,我:</t>
-  </si>
-  <si>
-    <t>(1)A.喜欢互相赠送礼物.</t>
-  </si>
-  <si>
-    <t>(3)C.觉得交换礼物是麻烦多事.</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>下列数字中,哪个数字与其他两个数字属于不同类别:</t>
-  </si>
-  <si>
-    <t>(1)A.  5.</t>
-  </si>
-  <si>
-    <t>(2)B.  2.</t>
-  </si>
-  <si>
-    <t>(3)C.  7.</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>[猫]与[鱼]就如同[牛]与:</t>
-  </si>
-  <si>
-    <t>(1)A.牛乳.</t>
-  </si>
-  <si>
-    <t>(2)B.牧草.</t>
-  </si>
-  <si>
-    <t>(3)C.盐.</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>在做人处事的各个方面,我的父母很值得敬佩:</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>我觉得我有一些别人所不及的优良品质:</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>只要有利于大家,尽管别人认为卑贱的工作,我也乐而为之,不以为耻:</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>我喜欢看电影或参加其他娱乐活动:</t>
-  </si>
-  <si>
-    <t>(1)A.每周一次以上(比一般人多).</t>
-  </si>
-  <si>
-    <t>(2)B.每周一次(与通常人相似).</t>
-  </si>
-  <si>
-    <t>(3)C.偶然一次(比通常人少).</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>我喜欢从事需要精确技术的工作:</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>在有思想,有地位的长者面前,我总较为缄默:</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>就我来说,在大众前演讲或表演是一件不容易的事:</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>我宁愿:</t>
-  </si>
-  <si>
-    <t>(1)A.指挥几个人工作.</t>
-  </si>
-  <si>
-    <t>(3)C.和团体共同工作.</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>纵使我做了一桩贻笑大方的事，我也仍然能够将它淡然忘却:</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>没有人会幸灾乐祸地希望我遭遇困难:</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>堂堂男子汉应该:</t>
-  </si>
-  <si>
-    <t>(1)A.考虑人生的意义.</t>
-  </si>
-  <si>
-    <t>(3)C.谋家庭的温饱.</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>我喜欢解决别人已弄得一塌糊涂的问题:</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>我十分高兴的时候总有[好景不常]之感:</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>在一般困难处境下,我总能保持乐观:</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>迁居是一桩极不愉快的事:</t>
-  </si>
-  <si>
-    <t>70</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[百折不挠][再接再厉]的精神似乎完全被现代人忽视了:</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在人声嘈杂中,我仍能不受妨碍,专心工作:</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1)A.一切都未雨绸缪.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[钟表]与[时间]犹如[裁缝]与:</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我喜欢独自筹划，避免人家的干涉和猜疑:</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气候的转变并不影响我的情绪:</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在处理一些必须凭借智慧的事务中,我的父母的确:</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我愿意与有礼貌有教养的人来往，而不愿和粗鲁野蛮的人为伍:</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>在我年轻的时候,如果我和父母的意见不同,我经常:</t>
-  </si>
-  <si>
-    <t>(1)A.坚持自己的意见.</t>
-  </si>
-  <si>
-    <t>(3)C.接受他们的意见.</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>我希望我的爱人能够使家庭:</t>
-  </si>
-  <si>
-    <t>(1)A.有其本身的欢乐与活动.</t>
-  </si>
-  <si>
-    <t>(3)C.成为邻里社交活动的一部分.</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>我解决问题多数依靠:</t>
-  </si>
-  <si>
-    <t>(1)A.个人独立思考.</t>
-  </si>
-  <si>
-    <t>(3)C.与人互相讨论.</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>需要[当机立断]时,我总:</t>
-  </si>
-  <si>
-    <t>(1)A.镇静地运用理智.</t>
-  </si>
-  <si>
-    <t>(3)C.常常紧张兴奋,不能冷静思考.</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>最近,在一两桩事情上,我觉得自己是无辜受累:</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>我善于控制我的表情:</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>如果薪俸相等,我宁愿做:</t>
-  </si>
-  <si>
-    <t>(1)A.一个化学研究师.</t>
-  </si>
-  <si>
-    <t>(3)C.旅行社经理.</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>[惊讶]与[新奇]犹如[惧怕]与:</t>
-  </si>
-  <si>
-    <t>(1)A.勇敢.</t>
-  </si>
-  <si>
-    <t>(2)B.焦虑.</t>
-  </si>
-  <si>
-    <t>(3)C.恐怖.</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>下列三个分数中,哪一个与其他两个属不同类别:</t>
-  </si>
-  <si>
-    <t>(1)A.  3/7.</t>
-  </si>
-  <si>
-    <t>(2)B.  3/9.</t>
-  </si>
-  <si>
-    <t>(3)C.  3/11.</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>不知什么缘故,有些人故意回避或冷淡我:</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>我虽善意待人,却得不到好报:</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>我不喜欢那些夜郎自大,目空一切的人:</t>
-  </si>
-  <si>
-    <t>82</t>
-  </si>
-  <si>
-    <t>和一般人相比,我的朋友的确太少:</t>
-  </si>
-  <si>
-    <t>83</t>
-  </si>
-  <si>
-    <t>出于万不得已时,我才参加社交集会,否则我总设法回避:</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>在服务机关中,对上级的逢迎得当,比工作上的表现更为重要:</t>
-  </si>
-  <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t>参加竞赛时,我看重的是竞赛活动,而不计较其成败:</t>
-  </si>
-  <si>
-    <t>(1)A.总是如此.</t>
-  </si>
-  <si>
-    <t>(2)B.一般如此.</t>
-  </si>
-  <si>
-    <t>(3)C.偶然如此.</t>
-  </si>
-  <si>
-    <t>86</t>
-  </si>
-  <si>
-    <t>我宁愿我所就的职业有:</t>
-  </si>
-  <si>
-    <t>(1)A.固定可靠的薪水.</t>
-  </si>
-  <si>
-    <t>(3)C.薪资高低能随我工作的表现而随时调整.</t>
-  </si>
-  <si>
-    <t>87</t>
-  </si>
-  <si>
-    <t>我宁愿阅读:</t>
-  </si>
-  <si>
-    <t>(1)A.军事与政治的事实记载.</t>
-  </si>
-  <si>
-    <t>(3)C.一部富有情感与幻想的作品.</t>
-  </si>
-  <si>
-    <t>88</t>
-  </si>
-  <si>
-    <t>有许多人不敢欺骗或犯罪,主要原因是怕受到惩罚:</t>
-  </si>
-  <si>
-    <t>89</t>
-  </si>
-  <si>
-    <t>我的父母(或保护人)从未很严格地要我事事顺从:</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>[百折不挠][再接再励]的精神似乎完全被现代人忽视了:</t>
-  </si>
-  <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t>如果有人对我发怒,我总:</t>
-  </si>
-  <si>
-    <t>(1)A.设法使他镇静下来.</t>
-  </si>
-  <si>
-    <t>(3)C.也会恼怒起来.</t>
-  </si>
-  <si>
-    <t>92</t>
-  </si>
-  <si>
-    <t>我希望大家都提倡:</t>
-  </si>
-  <si>
-    <t>(1)A.多吃水果以避免杀生.</t>
-  </si>
-  <si>
-    <t>(3)C.发展农业捕灭对农产品有害的动物.</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>无论在极高的屋顶上或极深的隧道中，我很少觉得胆怯不安:</t>
-  </si>
-  <si>
-    <t>94</t>
-  </si>
-  <si>
-    <t>我只要没有过错,不管人家怎样归咎于我,我总能心安理得:</t>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t>凡是无法运用理智来解决的问题，有时就不得不靠权力来处理:</t>
-  </si>
-  <si>
-    <t>96</t>
-  </si>
-  <si>
-    <t>我十六、七岁时与异性朋友的交游:</t>
-  </si>
-  <si>
-    <t>(1)A.极多.</t>
-  </si>
-  <si>
-    <t>(3)C.不很多.</t>
-  </si>
-  <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t>我在交际场或所参加的组织中是一个活跃分子:</t>
-  </si>
-  <si>
-    <t>98</t>
-  </si>
-  <si>
-    <t>在人声噪杂中,我仍能不受妨碍,专心工作:</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>在某环境下,我常因困惑引起幻想而将工作搁置下来:</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>我很少用难堪的话去中伤别人的感情:</t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>我更愿意做一名:</t>
-  </si>
-  <si>
-    <t>(1)A.商店经理.</t>
-  </si>
-  <si>
-    <t>(3)C.建筑师.</t>
-  </si>
-  <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>[理不胜辞]的意思是:</t>
-  </si>
-  <si>
-    <t>(1)A.理不如辞.</t>
-  </si>
-  <si>
-    <t>(2)B.理多而辞寡.</t>
-  </si>
-  <si>
-    <t>(3)C.辞藻丰富而理由不足.</t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>[锄头]与[挖掘]犹如[刀子]与:</t>
-  </si>
-  <si>
-    <t>(1)A.雕刻.</t>
-  </si>
-  <si>
-    <t>(2)B.切剖.</t>
-  </si>
-  <si>
-    <t>(3)C.铲除.</t>
-  </si>
-  <si>
-    <t>104</t>
-  </si>
-  <si>
-    <t>我常横过街道,以回避我不愿招乎的人:</t>
-  </si>
-  <si>
-    <t>(1)A.很少如此.</t>
-  </si>
-  <si>
-    <t>(3)C.有时如此.</t>
-  </si>
-  <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>在我倾听音乐时,如果人家高谈阔论:</t>
-  </si>
-  <si>
-    <t>(1)A.我仍然能够专心听,不受影响.</t>
-  </si>
-  <si>
-    <t>(3)C.我会不能专心欣赏而感到恼恐.</t>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
-    <t>在课堂上,如果我的意见与教师不同,我常:</t>
-  </si>
-  <si>
-    <t>(1)A.保持缄默.</t>
-  </si>
-  <si>
-    <t>(3)C.当场表明立场.</t>
-  </si>
-  <si>
-    <t>107</t>
-  </si>
-  <si>
-    <t>我和异性友伴交谈时, 竭力避免涉及有关 [性] 的话题:</t>
-  </si>
-  <si>
-    <t>108</t>
-  </si>
-  <si>
-    <t>我待人接物的确不太成功:</t>
-  </si>
-  <si>
-    <t>(2)B.不尽然.</t>
-  </si>
-  <si>
-    <t>109</t>
-  </si>
-  <si>
-    <t>每当考虑困难问题时,我总是:</t>
-  </si>
-  <si>
-    <t>(1)A.一切都未雨稠缪.</t>
-  </si>
-  <si>
-    <t>(3)C.相信到时候会自然解决.</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>我所结交的朋友中,男女各占一半:</t>
-  </si>
-  <si>
-    <t>111</t>
-  </si>
-  <si>
-    <t>我宁可:</t>
-  </si>
-  <si>
-    <t>(1)A.结识很多的人.</t>
-  </si>
-  <si>
-    <t>(3)C.维持几个深交的朋友.</t>
-  </si>
-  <si>
-    <t>112</t>
-  </si>
-  <si>
-    <t>我宁为哲学家,而不做机械工程师:</t>
-  </si>
-  <si>
-    <t>113</t>
-  </si>
-  <si>
-    <t>如果我发现某人自私不义，我总不计一切指摘他的弱点:</t>
-  </si>
-  <si>
-    <t>114</t>
-  </si>
-  <si>
-    <t>我善用心机去影响同伴,使他们能协助实现我的目标:</t>
-  </si>
-  <si>
-    <t>115</t>
-  </si>
-  <si>
-    <t>我喜欢做戏剧,音乐,歌剧等新闻采访工作:</t>
-  </si>
-  <si>
-    <t>116</t>
-  </si>
-  <si>
-    <t>当人们颂扬我时,我总觉得不好意思:</t>
-  </si>
-  <si>
-    <t>117</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>我以为现代最需要解决的问题是:</t>
-  </si>
-  <si>
-    <t>(1)A.政治纠纷.</t>
-  </si>
-  <si>
-    <t>(3)C.道德标准的有无.</t>
-  </si>
-  <si>
-    <t>118</t>
-  </si>
-  <si>
-    <t>我有时会无故地产生一种面临横祸的恐惧:</t>
-  </si>
-  <si>
-    <t>119</t>
-  </si>
-  <si>
-    <t>我在童年时,害怕黑暗的次数:</t>
-  </si>
-  <si>
-    <t>(2)B.不太多.</t>
-  </si>
-  <si>
-    <t>(3)C.没有.</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>黄昏闲暇,我喜欢:</t>
-  </si>
-  <si>
-    <t>(1)A.看一部历史探险影片.</t>
-  </si>
-  <si>
-    <t>(3)C.念一本科学幻想小说.</t>
-  </si>
-  <si>
-    <t>121</t>
-  </si>
-  <si>
-    <t>当人们批评我古怪时,我觉得:</t>
-  </si>
-  <si>
-    <t>(1)A.非常气恼.</t>
-  </si>
-  <si>
-    <t>(2)B.有些动气.</t>
-  </si>
-  <si>
-    <t>(3)C.无所谓.</t>
-  </si>
-  <si>
-    <t>122</t>
-  </si>
-  <si>
-    <t>在一个陌生的城市找住址时,我经常:</t>
-  </si>
-  <si>
-    <t>(1)A.就人问路.</t>
-  </si>
-  <si>
-    <t>(3)C.参考市区地图.</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>朋友们申言要在家休息时,我仍设法怂恿他们外出:</t>
-  </si>
-  <si>
-    <t>124</t>
-  </si>
-  <si>
-    <t>在就寝时,我:</t>
-  </si>
-  <si>
-    <t>(1)A.不易入睡.</t>
-  </si>
-  <si>
-    <t>(3)C.极容易入睡.</t>
-  </si>
-  <si>
-    <t>125</t>
-  </si>
-  <si>
-    <t>有人烦扰我时,我:</t>
-  </si>
-  <si>
-    <t>(1)A.能不露生色.</t>
-  </si>
-  <si>
-    <t>(3)C.要说给别人听,以泄气愤.</t>
-  </si>
-  <si>
-    <t>126</t>
-  </si>
-  <si>
-    <t>如果薪俸相等,我宁愿做一个:</t>
-  </si>
-  <si>
-    <t>(1)A.律师.</t>
-  </si>
-  <si>
-    <t>(3)C.飞行员或航海员.</t>
-  </si>
-  <si>
-    <t>127</t>
-  </si>
-  <si>
-    <t>时间永恒是比喻:</t>
-  </si>
-  <si>
-    <t>(1)A.时间过得很慢.</t>
-  </si>
-  <si>
-    <t>(2)B.忘了时间.</t>
-  </si>
-  <si>
-    <t>(3)C.光阴一去不复返.</t>
-  </si>
-  <si>
-    <t>128</t>
-  </si>
-  <si>
-    <t>下列三项记号中,哪一项应紧接:*OOOO**OOO***</t>
-  </si>
-  <si>
-    <t>(1)A.  *O*.</t>
-  </si>
-  <si>
-    <t>(2)B.  OO*.</t>
-  </si>
-  <si>
-    <t>(3)C.  O**.</t>
-  </si>
-  <si>
-    <t>129</t>
-  </si>
-  <si>
-    <t>在陌生的地方,我仍能清楚地辩别东西南北的方向:</t>
-  </si>
-  <si>
-    <t>130</t>
-  </si>
-  <si>
-    <t>我的确比一般人幸运,因为我能从事自己所乐的工作:</t>
-  </si>
-  <si>
-    <t>131</t>
-  </si>
-  <si>
-    <t>如果我急于想借用别人的东西而物主恰又不在，我认为不告而取亦无大碍:</t>
-  </si>
-  <si>
-    <t>132</t>
-  </si>
-  <si>
-    <t>我喜欢向友人追述一些已往有趣的社交经验:</t>
-  </si>
-  <si>
-    <t>133</t>
-  </si>
-  <si>
-    <t>(1)A.演员.</t>
-  </si>
-  <si>
-    <t>134</t>
-  </si>
-  <si>
-    <t>工作学习之余,我总要安排计划,不使时间浪费:</t>
-  </si>
-  <si>
-    <t>135</t>
-  </si>
-  <si>
-    <t>与人交际时,我常会无端地产生一种自卑感:</t>
-  </si>
-  <si>
-    <t>136</t>
-  </si>
-  <si>
-    <t>主动与陌生人交谈:</t>
-  </si>
-  <si>
-    <t>(1)A.是一桩难事.</t>
-  </si>
-  <si>
-    <t>(3)C.毫无困难.</t>
-  </si>
-  <si>
-    <t>137</t>
-  </si>
-  <si>
-    <t>我喜欢的音乐,多数是:</t>
-  </si>
-  <si>
-    <t>(1)A.轻快活泼.</t>
-  </si>
-  <si>
-    <t>(3)C.富于情感.</t>
-  </si>
-  <si>
-    <t>138</t>
-  </si>
-  <si>
-    <t>我爱做[白日梦]即[完全沉浸于幻想之中]:</t>
-  </si>
-  <si>
-    <t>139</t>
-  </si>
-  <si>
-    <t>未来二十年的世界局势定将好:</t>
-  </si>
-  <si>
-    <t>140</t>
-  </si>
-  <si>
-    <t>童年时,我喜欢阅读:</t>
-  </si>
-  <si>
-    <t>(1)A.战争故事.</t>
-  </si>
-  <si>
-    <t>(3)C.神仙幻想故事.</t>
-  </si>
-  <si>
-    <t>141</t>
-  </si>
-  <si>
-    <t>我素来对机械、汽车、飞机等有兴趣:</t>
-  </si>
-  <si>
-    <t>142</t>
-  </si>
-  <si>
-    <t>我愿意做一个缓刑释放罪犯的管理监视人:</t>
-  </si>
-  <si>
-    <t>143</t>
-  </si>
-  <si>
-    <t>人们认为我只不过是一个能苦干,稍有成就的人而已:</t>
-  </si>
-  <si>
-    <t>144</t>
-  </si>
-  <si>
-    <t>在逆境中,我总能保持精神振奋:</t>
-  </si>
-  <si>
-    <t>145</t>
-  </si>
-  <si>
-    <t>我以为人工节育是解决世界经济与和平问题的要诀:</t>
-  </si>
-  <si>
-    <t>146</t>
-  </si>
-  <si>
-    <t>我喜欢独自筹划，避免人家的干涉和猜议:</t>
-  </si>
-  <si>
-    <t>147</t>
-  </si>
-  <si>
-    <t>我相信[上司不可能没有过错,但他仍有权做当权者]:</t>
-  </si>
-  <si>
-    <t>148</t>
-  </si>
-  <si>
-    <t>我总设法使自己不粗心大意,忽略细节:</t>
-  </si>
-  <si>
-    <t>149</t>
-  </si>
-  <si>
-    <t>与人争辩或险遭事故后，我常发抖，精疲力竭，不能安心工作:</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>没有医生处方,我从不乱用药:</t>
-  </si>
-  <si>
-    <t>151</t>
-  </si>
-  <si>
-    <t>为了培养个人的兴趣,我愿意参加:</t>
-  </si>
-  <si>
-    <t>(1)A.摄影组.</t>
-  </si>
-  <si>
-    <t>(3)C.辩论会.</t>
-  </si>
-  <si>
-    <t>152</t>
-  </si>
-  <si>
-    <t>星火,燎原对等于姑息:</t>
-  </si>
-  <si>
-    <t>(1)A.同情.</t>
-  </si>
-  <si>
-    <t>(2)B.养奸.</t>
-  </si>
-  <si>
-    <t>(3)C.纵容.</t>
-  </si>
-  <si>
-    <t>153</t>
-  </si>
-  <si>
-    <t>[钟表]与[时间]犹如[载缝]与:</t>
-  </si>
-  <si>
-    <t>(1)A.西装.</t>
-  </si>
-  <si>
-    <t>(2)B.剪刀.</t>
-  </si>
-  <si>
-    <t>(3)C.布料.</t>
-  </si>
-  <si>
-    <t>154</t>
-  </si>
-  <si>
-    <t>生动的梦境常常滋扰我的睡眠:</t>
-  </si>
-  <si>
-    <t>155</t>
-  </si>
-  <si>
-    <t>我过去曾撕毁一些禁止人们自由的布告:</t>
-  </si>
-  <si>
-    <t>156</t>
-  </si>
-  <si>
-    <t>在一个陌生的城市中,我会:</t>
-  </si>
-  <si>
-    <t>(1)A.到处闲游.</t>
-  </si>
-  <si>
-    <t>(3)C.避免去较不安全的地方.</t>
-  </si>
-  <si>
-    <t>157</t>
-  </si>
-  <si>
-    <t>我宁愿服饰素洁大方,而不愿争奇斗艳惹人注目:</t>
-  </si>
-  <si>
-    <t>158</t>
-  </si>
-  <si>
-    <t>黄昏时,安静的娱乐远胜过热闹的宴会:</t>
-  </si>
-  <si>
-    <t>159</t>
-  </si>
-  <si>
-    <t>我常常明知故犯,不愿意接受好心的建议:</t>
-  </si>
-  <si>
-    <t>(1)A.偶然如此.</t>
-  </si>
-  <si>
-    <t>(2)B.罕有如此.</t>
-  </si>
-  <si>
-    <t>160</t>
-  </si>
-  <si>
-    <t>我总把[是非][善恶]作为判断或取舍的原则:</t>
-  </si>
-  <si>
-    <t>161</t>
-  </si>
-  <si>
-    <t>我工作时不喜欢有许多人在旁参观:</t>
-  </si>
-  <si>
-    <t>162</t>
-  </si>
-  <si>
-    <t>故意去为难一般有教养的人, 如医生, 教师等人的尊严, 是一件有趣的事:</t>
-  </si>
-  <si>
-    <t>163</t>
-  </si>
-  <si>
-    <t>在各种课程中,我较喜欢:</t>
-  </si>
-  <si>
-    <t>(1)A.语文.</t>
-  </si>
-  <si>
-    <t>(3)C.数学.</t>
-  </si>
-  <si>
-    <t>164</t>
-  </si>
-  <si>
-    <t>那些自以为是、道貌岸然的人最使我生气:</t>
-  </si>
-  <si>
-    <t>165</t>
-  </si>
-  <si>
-    <t>与平常循规蹈矩的人交谈:</t>
-  </si>
-  <si>
-    <t>(1)A.颇有兴趣.亦有所得.</t>
-  </si>
-  <si>
-    <t>(3)C.他们思想的肤浅使我厌烦.</t>
-  </si>
-  <si>
-    <t>166</t>
-  </si>
-  <si>
-    <t>我喜欢:</t>
-  </si>
-  <si>
-    <t>(1)A.有几个有时对我很苛求而富有感情的朋友.</t>
-  </si>
-  <si>
-    <t>(3)C.不受别人的牵涉.</t>
-  </si>
-  <si>
-    <t>167</t>
-  </si>
-  <si>
-    <t>如果做民意投票时,我宁愿投票赞同:</t>
-  </si>
-  <si>
-    <t>(1)A.切实根绝有生理缺陷者的生育.</t>
-  </si>
-  <si>
-    <t>(3)C.对杀人犯判处死刑.</t>
-  </si>
-  <si>
-    <t>168</t>
-  </si>
-  <si>
-    <t>我有时会无端地感到沮丧痛苦:</t>
-  </si>
-  <si>
-    <t>169</t>
-  </si>
-  <si>
-    <t>当我与立场相反的人辩论时,我主张:</t>
-  </si>
-  <si>
-    <t>(1)A.尽量找出基本观点的差异.</t>
-  </si>
-  <si>
-    <t>(3)C.彼此让步以解决矛盾.</t>
-  </si>
-  <si>
-    <t>170</t>
-  </si>
-  <si>
-    <t>我一向重感情而不重理智,因此我的观点常动摇不定:</t>
-  </si>
-  <si>
-    <t>(2)B.不敢如此.</t>
-  </si>
-  <si>
-    <t>171</t>
-  </si>
-  <si>
-    <t>我的学习效率多有赖于:</t>
-  </si>
-  <si>
-    <t>(1)A.阅读好书.</t>
-  </si>
-  <si>
-    <t>(3)C.参加团体讨论.</t>
-  </si>
-  <si>
-    <t>172</t>
-  </si>
-  <si>
-    <t>我宁选一个薪俸高的工作,不在乎有无保障;而不愿任薪俸低的固定工作:</t>
-  </si>
-  <si>
-    <t>173</t>
-  </si>
-  <si>
-    <t>在参加辩论以前,我总先把握住自己的立场:</t>
-  </si>
-  <si>
-    <t>(1)A.经常如此.</t>
-  </si>
-  <si>
-    <t>(3)C.必要时才如此.</t>
-  </si>
-  <si>
-    <t>174</t>
-  </si>
-  <si>
-    <t>我常被一些无所谓的琐事所烦扰:</t>
-  </si>
-  <si>
-    <t>175</t>
-  </si>
-  <si>
-    <t>我宁愿住在嘈杂的城市,而不愿住在安静的乡村:</t>
-  </si>
-  <si>
-    <t>176</t>
-  </si>
-  <si>
-    <t>(1)A.负责领导儿童游戏.</t>
-  </si>
-  <si>
-    <t>(3)C.协助钟表修理.</t>
-  </si>
-  <si>
-    <t>177</t>
-  </si>
-  <si>
-    <t>一人__事,众人受累:</t>
-  </si>
-  <si>
-    <t>(1)A.愤.</t>
-  </si>
-  <si>
-    <t>(2)B.偾.</t>
-  </si>
-  <si>
-    <t>(3)C.喷.</t>
-  </si>
-  <si>
-    <t>178</t>
-  </si>
-  <si>
-    <t>望子成龙的家长往往__苗助长:</t>
-  </si>
-  <si>
-    <t>(1)A.揠.</t>
-  </si>
-  <si>
-    <t>(2)B.堰.</t>
-  </si>
-  <si>
-    <t>(3)C.偃.</t>
-  </si>
-  <si>
-    <t>179</t>
-  </si>
-  <si>
-    <t>气侯的转变并不影响我的情绪:</t>
-  </si>
-  <si>
-    <t>180</t>
-  </si>
-  <si>
-    <t>因为我对于一切问题都有些见解，大家都公认我富于思想:</t>
-  </si>
-  <si>
-    <t>181</t>
-  </si>
-  <si>
-    <t>我讲话的声音:</t>
-  </si>
-  <si>
-    <t>(1)A.宏亮.</t>
-  </si>
-  <si>
-    <t>(3)C.低沉.</t>
-  </si>
-  <si>
-    <t>182</t>
-  </si>
-  <si>
-    <t>人们公认我是一个活跃热情的人:</t>
-  </si>
-  <si>
-    <t>183</t>
-  </si>
-  <si>
-    <t>我喜欢有旅行和变动机会的工作，而不计较工作本身之是否有保障:</t>
-  </si>
-  <si>
-    <t>184</t>
-  </si>
-  <si>
-    <t>我治事严格,凡事都务求正确尽善:</t>
-  </si>
-  <si>
-    <t>185</t>
-  </si>
-  <si>
-    <t>在取回或归还东西时，我总仔细检查是否东西还保持原状:</t>
-  </si>
-  <si>
-    <t>186</t>
-  </si>
-  <si>
-    <t>我通常精力充沛,忙碌多事:</t>
-  </si>
-  <si>
-    <t>187</t>
-  </si>
-  <si>
-    <t>我确信我没有遗漏或不经心回答上面任何问题:</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>无论工作</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="72"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>饮食或出游,我总:</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>我总喜欢参加规模庞大的聚会</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="72"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>舞会或公共集会:</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>在有思想</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="72"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>有地位的长者面前,我总较为缄默:</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>我在交际场</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="72"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>所参加的组织中是一个活跃分子:</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>我善用心机去影响同伴,使他们能协助</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>我实现目标</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="72"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>我喜欢做戏剧</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、音乐、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="72"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>歌剧等新闻采访工作:</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>故意去为难一般有教养的人, 如医生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="72"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>教师等人的尊严, 是一件有趣的事:</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(1)A.颇有兴趣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="72"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>亦有所得.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(3)C.我</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>会</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="72"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不能专心欣赏</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>而</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="72"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>感到恼恐.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1756,6 +1978,12 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1851,7 +2079,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1886,7 +2114,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2063,7 +2291,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2073,11 +2301,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E188"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
+      <selection activeCell="E105" sqref="E105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="8" customWidth="1"/>
+    <col min="2" max="2" width="60.625" customWidth="1"/>
+    <col min="3" max="3" width="26.875" customWidth="1"/>
+    <col min="4" max="4" width="17.375" customWidth="1"/>
+    <col min="5" max="5" width="24.25" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
@@ -2144,21 +2379,21 @@
         <v>16</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>17</v>
+        <v>548</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>8</v>
+        <v>540</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>9</v>
@@ -2166,10 +2401,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>7</v>
@@ -2183,16 +2418,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>9</v>
@@ -2200,27 +2435,27 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>7</v>
@@ -2234,78 +2469,78 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="D11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="D13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>7</v>
@@ -2319,10 +2554,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>7</v>
@@ -2336,10 +2571,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>7</v>
@@ -2353,10 +2588,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>7</v>
@@ -2370,10 +2605,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>7</v>
@@ -2387,44 +2622,44 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="D19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="D20" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>67</v>
+        <v>542</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>7</v>
@@ -2438,10 +2673,10 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>7</v>
@@ -2455,61 +2690,61 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>81</v>
+        <v>559</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>7</v>
@@ -2523,84 +2758,84 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>8</v>
+        <v>540</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>9</v>
@@ -2608,10 +2843,10 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>7</v>
@@ -2625,10 +2860,10 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>7</v>
@@ -2642,10 +2877,10 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>7</v>
@@ -2659,10 +2894,10 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>7</v>
@@ -2676,10 +2911,10 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>7</v>
@@ -2693,10 +2928,10 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>117</v>
+        <v>560</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>7</v>
@@ -2710,27 +2945,27 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>8</v>
+        <v>540</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>7</v>
@@ -2744,44 +2979,44 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>125</v>
+        <v>543</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>7</v>
@@ -2795,10 +3030,10 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>135</v>
+        <v>556</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>7</v>
@@ -2812,44 +3047,44 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>137</v>
+        <v>555</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>7</v>
@@ -2863,44 +3098,44 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>7</v>
@@ -2914,27 +3149,27 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>159</v>
+        <v>544</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>7</v>
@@ -2948,78 +3183,78 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>8</v>
+        <v>540</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>7</v>
@@ -3033,10 +3268,10 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>7</v>
@@ -3050,16 +3285,16 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>93</v>
+        <v>540</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>9</v>
@@ -3067,27 +3302,27 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>7</v>
@@ -3101,10 +3336,10 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>196</v>
+        <v>561</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>7</v>
@@ -3118,10 +3353,10 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>7</v>
@@ -3135,27 +3370,27 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>7</v>
@@ -3169,16 +3404,16 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>9</v>
@@ -3186,27 +3421,27 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A66" s="1" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>7</v>
@@ -3220,10 +3455,10 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>7</v>
@@ -3237,10 +3472,10 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>7</v>
@@ -3254,10 +3489,10 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>7</v>
@@ -3271,78 +3506,78 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>220</v>
+        <v>557</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A75" s="1" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>7</v>
@@ -3356,10 +3591,10 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A76" s="1" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>7</v>
@@ -3373,61 +3608,61 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A77" s="1" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A78" s="1" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A80" s="1" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>7</v>
@@ -3441,10 +3676,10 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A81" s="1" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>7</v>
@@ -3458,10 +3693,10 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A82" s="1" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>7</v>
@@ -3475,10 +3710,10 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A83" s="1" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>7</v>
@@ -3492,10 +3727,10 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A84" s="1" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>7</v>
@@ -3509,10 +3744,10 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A85" s="1" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>7</v>
@@ -3526,61 +3761,61 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A86" s="1" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A87" s="1" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A88" s="1" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A89" s="1" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>7</v>
@@ -3594,10 +3829,10 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A90" s="1" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>7</v>
@@ -3611,10 +3846,10 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A91" s="1" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>283</v>
+        <v>549</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>7</v>
@@ -3628,44 +3863,44 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A92" s="1" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A93" s="1" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A94" s="1" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>7</v>
@@ -3679,10 +3914,10 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A95" s="1" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>7</v>
@@ -3696,10 +3931,10 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A96" s="1" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>7</v>
@@ -3713,27 +3948,27 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A97" s="1" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A98" s="1" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>303</v>
+        <v>562</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>7</v>
@@ -3747,10 +3982,10 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A99" s="1" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>305</v>
+        <v>550</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>7</v>
@@ -3764,10 +3999,10 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A100" s="1" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>7</v>
@@ -3781,16 +4016,16 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A101" s="1" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>9</v>
@@ -3798,112 +4033,112 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A102" s="1" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A103" s="1" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A104" s="1" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A105" s="1" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A106" s="1" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>331</v>
+        <v>567</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A107" s="1" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A108" s="1" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>7</v>
@@ -3917,16 +4152,16 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A109" s="1" t="s">
-        <v>338</v>
+        <v>323</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>9</v>
@@ -3934,27 +4169,27 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A110" s="1" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>343</v>
+        <v>551</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A111" s="1" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>7</v>
@@ -3968,33 +4203,33 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A112" s="1" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A113" s="1" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E113" s="1" t="s">
         <v>9</v>
@@ -4002,10 +4237,10 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A114" s="1" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>7</v>
@@ -4019,10 +4254,10 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A115" s="1" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>356</v>
+        <v>563</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>7</v>
@@ -4036,10 +4271,10 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A116" s="1" t="s">
-        <v>357</v>
+        <v>340</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>358</v>
+        <v>564</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>7</v>
@@ -4053,10 +4288,10 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A117" s="1" t="s">
-        <v>359</v>
+        <v>341</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>360</v>
+        <v>342</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>7</v>
@@ -4070,33 +4305,33 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A118" s="1" t="s">
-        <v>361</v>
+        <v>343</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>362</v>
+        <v>558</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>363</v>
+        <v>344</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>364</v>
+        <v>345</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A119" s="1" t="s">
-        <v>365</v>
+        <v>346</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E119" s="1" t="s">
         <v>9</v>
@@ -4104,78 +4339,78 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A120" s="1" t="s">
-        <v>367</v>
+        <v>348</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>368</v>
+        <v>349</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>369</v>
+        <v>350</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>370</v>
+        <v>351</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A121" s="1" t="s">
-        <v>371</v>
+        <v>352</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>372</v>
+        <v>353</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>373</v>
+        <v>354</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>374</v>
+        <v>355</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A122" s="1" t="s">
-        <v>375</v>
+        <v>356</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>376</v>
+        <v>357</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>377</v>
+        <v>358</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>378</v>
+        <v>359</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>379</v>
+        <v>360</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A123" s="1" t="s">
-        <v>380</v>
+        <v>361</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>381</v>
+        <v>362</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>382</v>
+        <v>363</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>383</v>
+        <v>364</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A124" s="1" t="s">
-        <v>384</v>
+        <v>365</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>385</v>
+        <v>366</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>7</v>
@@ -4189,95 +4424,95 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A125" s="1" t="s">
-        <v>386</v>
+        <v>367</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>387</v>
+        <v>368</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>388</v>
+        <v>369</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>389</v>
+        <v>370</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A126" s="1" t="s">
-        <v>390</v>
+        <v>371</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>391</v>
+        <v>372</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>392</v>
+        <v>373</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>393</v>
+        <v>374</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A127" s="1" t="s">
-        <v>394</v>
+        <v>375</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>395</v>
+        <v>376</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>396</v>
+        <v>377</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>397</v>
+        <v>378</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A128" s="1" t="s">
-        <v>398</v>
+        <v>379</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>399</v>
+        <v>380</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>400</v>
+        <v>381</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>401</v>
+        <v>382</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>402</v>
+        <v>383</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A129" s="1" t="s">
-        <v>403</v>
+        <v>384</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>404</v>
+        <v>385</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>405</v>
+        <v>386</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>406</v>
+        <v>387</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>407</v>
+        <v>388</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A130" s="1" t="s">
-        <v>408</v>
+        <v>389</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>409</v>
+        <v>390</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>7</v>
@@ -4291,10 +4526,10 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A131" s="1" t="s">
-        <v>410</v>
+        <v>391</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>411</v>
+        <v>392</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>7</v>
@@ -4308,10 +4543,10 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A132" s="1" t="s">
-        <v>412</v>
+        <v>393</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>413</v>
+        <v>394</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>7</v>
@@ -4325,10 +4560,10 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A133" s="1" t="s">
-        <v>414</v>
+        <v>395</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>415</v>
+        <v>396</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>7</v>
@@ -4342,27 +4577,27 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A134" s="1" t="s">
-        <v>416</v>
+        <v>397</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>417</v>
+        <v>398</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A135" s="1" t="s">
-        <v>418</v>
+        <v>399</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>419</v>
+        <v>400</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>7</v>
@@ -4376,10 +4611,10 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A136" s="1" t="s">
-        <v>420</v>
+        <v>401</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>421</v>
+        <v>402</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>7</v>
@@ -4393,44 +4628,44 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A137" s="1" t="s">
-        <v>422</v>
+        <v>403</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>423</v>
+        <v>404</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>424</v>
+        <v>405</v>
       </c>
       <c r="D137" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>425</v>
+        <v>406</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A138" s="1" t="s">
-        <v>426</v>
+        <v>407</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>427</v>
+        <v>408</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>428</v>
+        <v>409</v>
       </c>
       <c r="D138" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>429</v>
+        <v>410</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A139" s="1" t="s">
-        <v>430</v>
+        <v>411</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>431</v>
+        <v>412</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>7</v>
@@ -4444,10 +4679,10 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A140" s="1" t="s">
-        <v>432</v>
+        <v>413</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>433</v>
+        <v>414</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>7</v>
@@ -4461,27 +4696,27 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A141" s="1" t="s">
-        <v>434</v>
+        <v>415</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>435</v>
+        <v>416</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>436</v>
+        <v>417</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>437</v>
+        <v>418</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A142" s="1" t="s">
-        <v>438</v>
+        <v>419</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>439</v>
+        <v>420</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>7</v>
@@ -4495,10 +4730,10 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A143" s="1" t="s">
-        <v>440</v>
+        <v>421</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>7</v>
@@ -4512,10 +4747,10 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A144" s="1" t="s">
-        <v>442</v>
+        <v>423</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>443</v>
+        <v>424</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>7</v>
@@ -4529,16 +4764,16 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A145" s="1" t="s">
-        <v>444</v>
+        <v>425</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>445</v>
+        <v>426</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E145" s="1" t="s">
         <v>9</v>
@@ -4546,16 +4781,16 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A146" s="1" t="s">
-        <v>446</v>
+        <v>427</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>447</v>
+        <v>428</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>93</v>
+        <v>540</v>
       </c>
       <c r="E146" s="1" t="s">
         <v>9</v>
@@ -4563,10 +4798,10 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A147" s="1" t="s">
-        <v>448</v>
+        <v>429</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>449</v>
+        <v>553</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>7</v>
@@ -4580,10 +4815,10 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A148" s="1" t="s">
-        <v>450</v>
+        <v>430</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>451</v>
+        <v>431</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>7</v>
@@ -4597,10 +4832,10 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A149" s="1" t="s">
-        <v>452</v>
+        <v>432</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>453</v>
+        <v>433</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>7</v>
@@ -4614,10 +4849,10 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A150" s="1" t="s">
-        <v>454</v>
+        <v>434</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>455</v>
+        <v>435</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>7</v>
@@ -4631,10 +4866,10 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A151" s="1" t="s">
-        <v>456</v>
+        <v>436</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>457</v>
+        <v>437</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>7</v>
@@ -4648,78 +4883,78 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A152" s="1" t="s">
-        <v>458</v>
+        <v>438</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>459</v>
+        <v>439</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>460</v>
+        <v>440</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>461</v>
+        <v>441</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A153" s="1" t="s">
-        <v>462</v>
+        <v>442</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>463</v>
+        <v>547</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>464</v>
+        <v>443</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>465</v>
+        <v>444</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>466</v>
+        <v>445</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A154" s="1" t="s">
-        <v>467</v>
+        <v>446</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>468</v>
+        <v>552</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>469</v>
+        <v>447</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>470</v>
+        <v>448</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>471</v>
+        <v>449</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A155" s="1" t="s">
-        <v>472</v>
+        <v>450</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>473</v>
+        <v>451</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A156" s="1" t="s">
-        <v>474</v>
+        <v>452</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>475</v>
+        <v>453</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>7</v>
@@ -4733,33 +4968,33 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A157" s="1" t="s">
-        <v>476</v>
+        <v>454</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>477</v>
+        <v>455</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>478</v>
+        <v>456</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>479</v>
+        <v>545</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A158" s="1" t="s">
-        <v>480</v>
+        <v>457</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>481</v>
+        <v>458</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>93</v>
+        <v>540</v>
       </c>
       <c r="E158" s="1" t="s">
         <v>9</v>
@@ -4767,16 +5002,16 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A159" s="1" t="s">
-        <v>482</v>
+        <v>459</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>483</v>
+        <v>460</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>93</v>
+        <v>540</v>
       </c>
       <c r="E159" s="1" t="s">
         <v>9</v>
@@ -4784,27 +5019,27 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A160" s="1" t="s">
-        <v>484</v>
+        <v>461</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>485</v>
+        <v>462</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>486</v>
+        <v>463</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>487</v>
+        <v>464</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A161" s="1" t="s">
-        <v>488</v>
+        <v>465</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>489</v>
+        <v>466</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>7</v>
@@ -4818,10 +5053,10 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A162" s="1" t="s">
-        <v>490</v>
+        <v>467</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>491</v>
+        <v>468</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>7</v>
@@ -4835,10 +5070,10 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A163" s="1" t="s">
-        <v>492</v>
+        <v>469</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>493</v>
+        <v>565</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>7</v>
@@ -4852,27 +5087,27 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A164" s="1" t="s">
-        <v>494</v>
+        <v>470</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>495</v>
+        <v>471</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>496</v>
+        <v>472</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>497</v>
+        <v>473</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A165" s="1" t="s">
-        <v>498</v>
+        <v>474</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>499</v>
+        <v>475</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>7</v>
@@ -4886,61 +5121,61 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A166" s="1" t="s">
-        <v>500</v>
+        <v>476</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>501</v>
+        <v>477</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>502</v>
+        <v>566</v>
       </c>
       <c r="D166" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>503</v>
+        <v>478</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A167" s="1" t="s">
-        <v>504</v>
+        <v>479</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>505</v>
+        <v>480</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>506</v>
+        <v>481</v>
       </c>
       <c r="D167" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>507</v>
+        <v>482</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A168" s="1" t="s">
-        <v>508</v>
+        <v>483</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>509</v>
+        <v>484</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>510</v>
+        <v>485</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>511</v>
+        <v>486</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A169" s="1" t="s">
-        <v>512</v>
+        <v>487</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>513</v>
+        <v>488</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>7</v>
@@ -4954,33 +5189,33 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A170" s="1" t="s">
-        <v>514</v>
+        <v>489</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>515</v>
+        <v>490</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>516</v>
+        <v>491</v>
       </c>
       <c r="D170" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>517</v>
+        <v>492</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A171" s="1" t="s">
-        <v>518</v>
+        <v>493</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>519</v>
+        <v>494</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>520</v>
+        <v>540</v>
       </c>
       <c r="E171" s="1" t="s">
         <v>9</v>
@@ -4988,33 +5223,33 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A172" s="1" t="s">
-        <v>521</v>
+        <v>495</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>522</v>
+        <v>496</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>523</v>
+        <v>497</v>
       </c>
       <c r="D172" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>524</v>
+        <v>498</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A173" s="1" t="s">
-        <v>525</v>
+        <v>499</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>526</v>
+        <v>546</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>93</v>
+        <v>540</v>
       </c>
       <c r="E173" s="1" t="s">
         <v>9</v>
@@ -5022,27 +5257,27 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A174" s="1" t="s">
-        <v>527</v>
+        <v>500</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>528</v>
+        <v>501</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>529</v>
+        <v>502</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>530</v>
+        <v>503</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A175" s="1" t="s">
-        <v>531</v>
+        <v>504</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>532</v>
+        <v>505</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>7</v>
@@ -5056,16 +5291,16 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A176" s="1" t="s">
-        <v>533</v>
+        <v>506</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>534</v>
+        <v>507</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>93</v>
+        <v>540</v>
       </c>
       <c r="E176" s="1" t="s">
         <v>9</v>
@@ -5073,61 +5308,61 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A177" s="1" t="s">
-        <v>535</v>
+        <v>508</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>536</v>
+        <v>509</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>537</v>
+        <v>510</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A178" s="1" t="s">
-        <v>538</v>
+        <v>511</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>539</v>
+        <v>512</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>540</v>
+        <v>513</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>541</v>
+        <v>514</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>542</v>
+        <v>515</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A179" s="1" t="s">
-        <v>543</v>
+        <v>516</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>544</v>
+        <v>517</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>545</v>
+        <v>518</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>546</v>
+        <v>519</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>547</v>
+        <v>520</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A180" s="1" t="s">
-        <v>548</v>
+        <v>521</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>7</v>
@@ -5141,10 +5376,10 @@
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A181" s="1" t="s">
-        <v>550</v>
+        <v>522</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>551</v>
+        <v>523</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>7</v>
@@ -5158,27 +5393,27 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A182" s="1" t="s">
-        <v>552</v>
+        <v>524</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>553</v>
+        <v>525</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>554</v>
+        <v>526</v>
       </c>
       <c r="D182" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>555</v>
+        <v>527</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A183" s="1" t="s">
-        <v>556</v>
+        <v>528</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>557</v>
+        <v>529</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>7</v>
@@ -5192,10 +5427,10 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A184" s="1" t="s">
-        <v>558</v>
+        <v>530</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>559</v>
+        <v>531</v>
       </c>
       <c r="C184" s="1" t="s">
         <v>7</v>
@@ -5209,10 +5444,10 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A185" s="1" t="s">
-        <v>560</v>
+        <v>532</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>561</v>
+        <v>533</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>7</v>
@@ -5226,10 +5461,10 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A186" s="1" t="s">
-        <v>562</v>
+        <v>534</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>563</v>
+        <v>535</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>7</v>
@@ -5243,10 +5478,10 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A187" s="1" t="s">
-        <v>564</v>
+        <v>536</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>565</v>
+        <v>537</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>7</v>
@@ -5260,16 +5495,16 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A188" s="1" t="s">
-        <v>566</v>
+        <v>538</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>567</v>
+        <v>539</v>
       </c>
       <c r="C188" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E188" s="1" t="s">
         <v>9</v>
@@ -5278,5 +5513,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>